--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Pgf</t>
   </si>
   <si>
     <t>Flt1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H2">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I2">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J2">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N2">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O2">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P2">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q2">
-        <v>2569.184685546752</v>
+        <v>1350.349844757485</v>
       </c>
       <c r="R2">
-        <v>23122.66216992077</v>
+        <v>12153.14860281737</v>
       </c>
       <c r="S2">
-        <v>0.7852611445777253</v>
+        <v>0.7742770434949786</v>
       </c>
       <c r="T2">
-        <v>0.8239944114311665</v>
+        <v>0.7965434702626472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H3">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I3">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J3">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.106414</v>
       </c>
       <c r="O3">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P3">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q3">
-        <v>6.443165417337999</v>
+        <v>5.786372250611334</v>
       </c>
       <c r="R3">
-        <v>57.988488756042</v>
+        <v>52.07735025550201</v>
       </c>
       <c r="S3">
-        <v>0.001969328043556246</v>
+        <v>0.003317847753423748</v>
       </c>
       <c r="T3">
-        <v>0.002066465803599178</v>
+        <v>0.003413261423050856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H4">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I4">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J4">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N4">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O4">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P4">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q4">
-        <v>86.71571552517899</v>
+        <v>120.3366265220643</v>
       </c>
       <c r="R4">
-        <v>780.441439726611</v>
+        <v>1083.029638698579</v>
       </c>
       <c r="S4">
-        <v>0.02650431571122619</v>
+        <v>0.06899981347011365</v>
       </c>
       <c r="T4">
-        <v>0.02781164988954318</v>
+        <v>0.07098408939114584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H5">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I5">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J5">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N5">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O5">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P5">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q5">
-        <v>131.6961367806435</v>
+        <v>19.501883069097</v>
       </c>
       <c r="R5">
-        <v>790.176820683861</v>
+        <v>117.011298414582</v>
       </c>
       <c r="S5">
-        <v>0.04025240368534452</v>
+        <v>0.01118218395325328</v>
       </c>
       <c r="T5">
-        <v>0.02815857791378957</v>
+        <v>0.007669171894885122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H6">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I6">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J6">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N6">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O6">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P6">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q6">
-        <v>19.99592216856</v>
+        <v>18.42780392605533</v>
       </c>
       <c r="R6">
-        <v>179.96329951704</v>
+        <v>165.850235334498</v>
       </c>
       <c r="S6">
-        <v>0.006111674578049638</v>
+        <v>0.01056631775636911</v>
       </c>
       <c r="T6">
-        <v>0.006413134957170126</v>
+        <v>0.01087018075024545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.692628</v>
       </c>
       <c r="I7">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J7">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N7">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O7">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P7">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q7">
-        <v>131.9919831161743</v>
+        <v>77.24874635172667</v>
       </c>
       <c r="R7">
-        <v>1187.927848045568</v>
+        <v>695.23871716554</v>
       </c>
       <c r="S7">
-        <v>0.0403428279484833</v>
+        <v>0.0442936555820098</v>
       </c>
       <c r="T7">
-        <v>0.04233275134064522</v>
+        <v>0.0455674392316416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.692628</v>
       </c>
       <c r="I8">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J8">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.106414</v>
       </c>
       <c r="O8">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P8">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q8">
         <v>0.3310179239991111</v>
@@ -948,10 +948,10 @@
         <v>2.979161315992</v>
       </c>
       <c r="S8">
-        <v>0.0001011743201403862</v>
+        <v>0.0001898023542068886</v>
       </c>
       <c r="T8">
-        <v>0.0001061647770957223</v>
+        <v>0.0001952606333277601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.692628</v>
       </c>
       <c r="I9">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J9">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N9">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O9">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P9">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q9">
-        <v>4.455023931870667</v>
+        <v>6.884033478520444</v>
       </c>
       <c r="R9">
-        <v>40.095215386836</v>
+        <v>61.956301306684</v>
       </c>
       <c r="S9">
-        <v>0.001361660456541849</v>
+        <v>0.003947235681007188</v>
       </c>
       <c r="T9">
-        <v>0.001428824810962283</v>
+        <v>0.004060749099704387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.692628</v>
       </c>
       <c r="I10">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J10">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N10">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O10">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P10">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q10">
-        <v>6.765895172972667</v>
+        <v>1.115633866612</v>
       </c>
       <c r="R10">
-        <v>40.595371037836</v>
+        <v>6.693803199671999</v>
       </c>
       <c r="S10">
-        <v>0.002067969117794565</v>
+        <v>0.0006396932581706969</v>
       </c>
       <c r="T10">
-        <v>0.001446648254398041</v>
+        <v>0.0004387262432293384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.692628</v>
       </c>
       <c r="I11">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J11">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N11">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O11">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P11">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q11">
-        <v>1.02729143456</v>
+        <v>1.054189591556444</v>
       </c>
       <c r="R11">
-        <v>9.245622911040002</v>
+        <v>9.487706324008</v>
       </c>
       <c r="S11">
-        <v>0.0003139875666609798</v>
+        <v>0.0006044617277532947</v>
       </c>
       <c r="T11">
-        <v>0.0003294751077065543</v>
+        <v>0.0006218446566518763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H12">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I12">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J12">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N12">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O12">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P12">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q12">
-        <v>285.903986047232</v>
+        <v>10.17425927613333</v>
       </c>
       <c r="R12">
-        <v>1715.423916283392</v>
+        <v>91.5683334852</v>
       </c>
       <c r="S12">
-        <v>0.08738542331572605</v>
+        <v>0.005833818119548617</v>
       </c>
       <c r="T12">
-        <v>0.0611304922359519</v>
+        <v>0.006001585309634073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H13">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I13">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J13">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.106414</v>
       </c>
       <c r="O13">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P13">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q13">
-        <v>0.717008273458</v>
+        <v>0.04359762899555555</v>
       </c>
       <c r="R13">
-        <v>4.302049640748001</v>
+        <v>0.39237866096</v>
       </c>
       <c r="S13">
-        <v>0.0002191507448470979</v>
+        <v>2.499844274661445E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001533069520985851</v>
+        <v>2.571734045822775E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H14">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I14">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J14">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N14">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O14">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P14">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q14">
-        <v>9.649897440639</v>
+        <v>0.9066806231022222</v>
       </c>
       <c r="R14">
-        <v>57.899384643834</v>
+        <v>8.16012560792</v>
       </c>
       <c r="S14">
-        <v>0.002949453012048149</v>
+        <v>0.0005198815662291222</v>
       </c>
       <c r="T14">
-        <v>0.002063290507867425</v>
+        <v>0.0005348321642347787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H15">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I15">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J15">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N15">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O15">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P15">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q15">
-        <v>14.6554082563335</v>
+        <v>0.14693763656</v>
       </c>
       <c r="R15">
-        <v>58.62163302533401</v>
+        <v>0.88162581936</v>
       </c>
       <c r="S15">
-        <v>0.004479367608861948</v>
+        <v>8.425256555218766E-05</v>
       </c>
       <c r="T15">
-        <v>0.002089028401957985</v>
+        <v>5.778365035899967E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1182133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.35464</v>
+      </c>
+      <c r="I16">
+        <v>0.006542562993707394</v>
+      </c>
+      <c r="J16">
+        <v>0.006701820230928955</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.174528666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.523586</v>
+      </c>
+      <c r="O16">
+        <v>0.01216836577766621</v>
+      </c>
+      <c r="P16">
+        <v>0.01222082410759068</v>
+      </c>
+      <c r="Q16">
+        <v>0.1388449487822222</v>
+      </c>
+      <c r="R16">
+        <v>1.24960453904</v>
+      </c>
+      <c r="S16">
+        <v>7.961229963085448E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.190176624287552E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.28809</v>
+      </c>
+      <c r="H17">
+        <v>2.57618</v>
+      </c>
+      <c r="I17">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J17">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>86.066935</v>
+      </c>
+      <c r="N17">
+        <v>258.200805</v>
+      </c>
+      <c r="O17">
+        <v>0.8916716774694496</v>
+      </c>
+      <c r="P17">
+        <v>0.8955157110805073</v>
+      </c>
+      <c r="Q17">
+        <v>110.86195830415</v>
+      </c>
+      <c r="R17">
+        <v>665.1717498249</v>
+      </c>
+      <c r="S17">
+        <v>0.06356713383946574</v>
+      </c>
+      <c r="T17">
+        <v>0.04359678559376581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.28809</v>
+      </c>
+      <c r="H18">
+        <v>2.57618</v>
+      </c>
+      <c r="I18">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J18">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3688046666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.106414</v>
+      </c>
+      <c r="O18">
+        <v>0.003820894467605101</v>
+      </c>
+      <c r="P18">
+        <v>0.003837366502243974</v>
+      </c>
+      <c r="Q18">
+        <v>0.4750536030866667</v>
+      </c>
+      <c r="R18">
+        <v>2.85032161852</v>
+      </c>
+      <c r="S18">
+        <v>0.0002723909664799792</v>
+      </c>
+      <c r="T18">
+        <v>0.0001868162027455368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.28809</v>
+      </c>
+      <c r="H19">
+        <v>2.57618</v>
+      </c>
+      <c r="I19">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J19">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.669867666666666</v>
+      </c>
+      <c r="N19">
+        <v>23.009603</v>
+      </c>
+      <c r="O19">
+        <v>0.07946145367329926</v>
+      </c>
+      <c r="P19">
+        <v>0.07980401529819077</v>
+      </c>
+      <c r="Q19">
+        <v>9.879479842756666</v>
+      </c>
+      <c r="R19">
+        <v>59.27687905654</v>
+      </c>
+      <c r="S19">
+        <v>0.00566479455203082</v>
+      </c>
+      <c r="T19">
+        <v>0.003885134008736613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.28809</v>
+      </c>
+      <c r="H20">
+        <v>2.57618</v>
+      </c>
+      <c r="I20">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J20">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.242987</v>
+      </c>
+      <c r="N20">
+        <v>2.485974</v>
+      </c>
+      <c r="O20">
+        <v>0.01287760861197995</v>
+      </c>
+      <c r="P20">
+        <v>0.008622083011467191</v>
+      </c>
+      <c r="Q20">
+        <v>1.60107912483</v>
+      </c>
+      <c r="R20">
+        <v>6.404316499319999</v>
+      </c>
+      <c r="S20">
+        <v>0.0009180426953709458</v>
+      </c>
+      <c r="T20">
+        <v>0.0004197526629309942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.944141</v>
-      </c>
-      <c r="H16">
-        <v>3.888282</v>
-      </c>
-      <c r="I16">
-        <v>0.09571351399447693</v>
-      </c>
-      <c r="J16">
-        <v>0.06591189571392365</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.14456</v>
-      </c>
-      <c r="N16">
-        <v>3.43368</v>
-      </c>
-      <c r="O16">
-        <v>0.007105781457704291</v>
-      </c>
-      <c r="P16">
-        <v>0.007218387680924444</v>
-      </c>
-      <c r="Q16">
-        <v>2.22518602296</v>
-      </c>
-      <c r="R16">
-        <v>13.35111613776</v>
-      </c>
-      <c r="S16">
-        <v>0.0006801193129936744</v>
-      </c>
-      <c r="T16">
-        <v>0.0004757776160477632</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.28809</v>
+      </c>
+      <c r="H21">
+        <v>2.57618</v>
+      </c>
+      <c r="I21">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J21">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.174528666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.523586</v>
+      </c>
+      <c r="O21">
+        <v>0.01216836577766621</v>
+      </c>
+      <c r="P21">
+        <v>0.01222082410759068</v>
+      </c>
+      <c r="Q21">
+        <v>1.512898630246666</v>
+      </c>
+      <c r="R21">
+        <v>9.077391781479999</v>
+      </c>
+      <c r="S21">
+        <v>0.000867480885107495</v>
+      </c>
+      <c r="T21">
+        <v>0.0005949517599807441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H22">
+        <v>0.224926</v>
+      </c>
+      <c r="I22">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J22">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>86.066935</v>
+      </c>
+      <c r="N22">
+        <v>258.200805</v>
+      </c>
+      <c r="O22">
+        <v>0.8916716774694496</v>
+      </c>
+      <c r="P22">
+        <v>0.8955157110805073</v>
+      </c>
+      <c r="Q22">
+        <v>6.452897140603333</v>
+      </c>
+      <c r="R22">
+        <v>58.07607426542999</v>
+      </c>
+      <c r="S22">
+        <v>0.003700026433446853</v>
+      </c>
+      <c r="T22">
+        <v>0.003806430682818502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H23">
+        <v>0.224926</v>
+      </c>
+      <c r="I23">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J23">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3688046666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.106414</v>
+      </c>
+      <c r="O23">
+        <v>0.003820894467605101</v>
+      </c>
+      <c r="P23">
+        <v>0.003837366502243974</v>
+      </c>
+      <c r="Q23">
+        <v>0.02765125281822222</v>
+      </c>
+      <c r="R23">
+        <v>0.248861275364</v>
+      </c>
+      <c r="S23">
+        <v>1.585495074787108E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.631090266159298E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H24">
+        <v>0.224926</v>
+      </c>
+      <c r="I24">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J24">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.669867666666666</v>
+      </c>
+      <c r="N24">
+        <v>23.009603</v>
+      </c>
+      <c r="O24">
+        <v>0.07946145367329926</v>
+      </c>
+      <c r="P24">
+        <v>0.07980401529819077</v>
+      </c>
+      <c r="Q24">
+        <v>0.5750508849308887</v>
+      </c>
+      <c r="R24">
+        <v>5.175457964377999</v>
+      </c>
+      <c r="S24">
+        <v>0.000329728403918485</v>
+      </c>
+      <c r="T24">
+        <v>0.0003392106343691401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H25">
+        <v>0.224926</v>
+      </c>
+      <c r="I25">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J25">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.242987</v>
+      </c>
+      <c r="N25">
+        <v>2.485974</v>
+      </c>
+      <c r="O25">
+        <v>0.01287760861197995</v>
+      </c>
+      <c r="P25">
+        <v>0.008622083011467191</v>
+      </c>
+      <c r="Q25">
+        <v>0.09319336465399998</v>
+      </c>
+      <c r="R25">
+        <v>0.5591601879239999</v>
+      </c>
+      <c r="S25">
+        <v>5.343613963284277E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.664856006273505E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H26">
+        <v>0.224926</v>
+      </c>
+      <c r="I26">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J26">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.174528666666667</v>
+      </c>
+      <c r="N26">
+        <v>3.523586</v>
+      </c>
+      <c r="O26">
+        <v>0.01216836577766621</v>
+      </c>
+      <c r="P26">
+        <v>0.01222082410759068</v>
+      </c>
+      <c r="Q26">
+        <v>0.08806067829288887</v>
+      </c>
+      <c r="R26">
+        <v>0.7925461046359999</v>
+      </c>
+      <c r="S26">
+        <v>5.049310880546349E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.194517446972992E-05</v>
       </c>
     </row>
   </sheetData>
